--- a/Резы/Респа для ПЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ПЕ-61б на 2019 год.xlsx
@@ -1064,8 +1064,11 @@
           <t>Теория надежности систем: лекция (общ)</t>
         </is>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>314</v>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>314
+207</t>
+        </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1751,7 +1754,7 @@
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="4" t="n"/>
       <c r="H12" s="3" t="n">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
@@ -1780,8 +1783,8 @@
       <c r="G13" s="12" t="n"/>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>207
-312</t>
+          <t>312
+301</t>
         </is>
       </c>
       <c r="I13" s="11" t="inlineStr">
@@ -2364,7 +2367,7 @@
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="8" t="n"/>
       <c r="I12" s="3" t="n">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -2399,9 +2402,9 @@
       <c r="H13" s="4" t="n"/>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>207
-312
-301</t>
+          <t>312
+301
+310</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -3232,8 +3235,8 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>314, 207
-312</t>
+          <t>207, 312
+316</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
@@ -3264,8 +3267,8 @@
       <c r="G13" s="8" t="n"/>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>207
-301</t>
+          <t>312
+310</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">

--- a/Резы/Респа для ПЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ПЕ-61б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,42 +159,42 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -215,35 +215,35 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -692,7 +692,7 @@
     <col width="82.2" customWidth="1" min="4" max="4"/>
     <col width="82.2" customWidth="1" min="5" max="5"/>
     <col width="72.05" customWidth="1" min="6" max="6"/>
-    <col width="51.75" customWidth="1" min="7" max="7"/>
+    <col width="23.5" customWidth="1" min="7" max="7"/>
     <col width="66.25" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="20.5" customWidth="1" min="10" max="10"/>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="E16" s="7" t="n"/>
       <c r="F16" s="8" t="n"/>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="G16" s="4" t="n"/>
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>Технологии программирования: ПР (2)</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n"/>
       <c r="I16" s="3" t="inlineStr">
         <is>
           <t>307, 310</t>
